--- a/biology/Médecine/Vitesse_de_sédimentation/Vitesse_de_sédimentation.xlsx
+++ b/biology/Médecine/Vitesse_de_sédimentation/Vitesse_de_sédimentation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vitesse_de_s%C3%A9dimentation</t>
+          <t>Vitesse_de_sédimentation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La vitesse de sédimentation ou VS, également appelée réaction de Biernacki, en anglais erythrocyte sedimentation rate ou ESR, est une mesure non spécifique de l'inflammation, utilisée fréquemment comme test médical d'orientation.
 Pour effectuer ce test, du sang anticoagulé est placé dans un tube vertical normalisé appelé tube de Westergren, et la vitesse à laquelle les globules rouges tombent est reportée en mm/h (de manière plus simple, les résultats sont donnés en mm à la première heure et, éventuellement, en mm à la seconde heure).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vitesse_de_s%C3%A9dimentation</t>
+          <t>Vitesse_de_sédimentation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'effet Fåhræus–Lindqvist dont la découverte est traditionnellement attribuée soit au Suédois Robin Fåhraeus (1888–1968) (qui publia les premières anomalies de la vitesse de sédimentation), soit au Polonais Edmund Biernacki (en) (1866–1911) (qui décrivit en détail la méthode de mesure dès 1894).
-En fait, John Hunter (1728–1793) fit la première description du phénomène dans son Traité sur le sang, l'inflammation et les blessures par armes à feu, publié en 1794 : il constate que la « partie rouge du sang » sédimente plus vite lors de certaines inflammations et postule que cela soit dû à un « sang plus lourd »[1].
+En fait, John Hunter (1728–1793) fit la première description du phénomène dans son Traité sur le sang, l'inflammation et les blessures par armes à feu, publié en 1794 : il constate que la « partie rouge du sang » sédimente plus vite lors de certaines inflammations et postule que cela soit dû à un « sang plus lourd ».
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vitesse_de_s%C3%A9dimentation</t>
+          <t>Vitesse_de_sédimentation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La vitesse de sédimentation est chez la personne normale de quelques millimètres par heure. Elle peut dépasser 100 mm/h dans certains cas.
 Elle est régulièrement augmentée dans un syndrome inflammatoire (rhumatisme, artérite temporale ou maladie de Horton, syndromes infectieux, myélome ...).
@@ -554,7 +570,7 @@
 Ce test, simple de réalisation mais peu spécifique, tend à être remplacé par des dosages plus fiables :
 protéine C réactive,
 fibrinogène.
-La mesure de la viscosité plasmatique repose sur les mêmes principes mais ses résultats sont indépendants du sexe et de la présence ou non d'une anémie ou d'une polyglobulie[2].
+La mesure de la viscosité plasmatique repose sur les mêmes principes mais ses résultats sont indépendants du sexe et de la présence ou non d'une anémie ou d'une polyglobulie.
 </t>
         </is>
       </c>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vitesse_de_s%C3%A9dimentation</t>
+          <t>Vitesse_de_sédimentation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Valeurs normales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Miller[3], pour les hommes, la VS normale correspond à son âge divisé par deux.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Miller, pour les hommes, la VS normale correspond à son âge divisé par deux.
         V
           S
             h
@@ -615,7 +633,7 @@
               10
             2
     {\displaystyle VS_{femme}&lt;{\frac {age+10}{2}}}
-Selon Sox[4] :
+Selon Sox :
 Avant 50 ans
 VS inférieure à 15 pour les hommes
 VS inférieure à 20 pour les femmes
